--- a/templates/MOCK_Hierarchical_View_Enhanced.xlsx
+++ b/templates/MOCK_Hierarchical_View_Enhanced.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0_Sasa\events-tracker\Claude-temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0_Sasa\events-tracker\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80F0B90-6E4D-458F-8DEA-B76F12086A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C312CF-D61B-48AE-AF88-E6545F2761E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30675" yWindow="1875" windowWidth="24750" windowHeight="13335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hierarchical_View" sheetId="1" r:id="rId1"/>
@@ -931,7 +931,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.3"/>

--- a/templates/MOCK_Hierarchical_View_Enhanced.xlsx
+++ b/templates/MOCK_Hierarchical_View_Enhanced.xlsx
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0_Sasa\events-tracker\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C312CF-D61B-48AE-AF88-E6545F2761E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EE8ACF-EC62-48B2-AC60-DA97DEFC9B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30675" yWindow="1875" windowWidth="24750" windowHeight="13335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hierarchical_View" sheetId="1" r:id="rId1"/>
-    <sheet name="Help" sheetId="2" r:id="rId2"/>
+    <sheet name="Areas" sheetId="3" r:id="rId2"/>
+    <sheet name="Categories" sheetId="4" r:id="rId3"/>
+    <sheet name="Attributes" sheetId="5" r:id="rId4"/>
+    <sheet name="Help" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="218">
   <si>
     <t>Type</t>
   </si>
@@ -161,9 +164,6 @@
     <t>ms</t>
   </si>
   <si>
-    <t>Heart rate variability</t>
-  </si>
-  <si>
     <t>Body Battery</t>
   </si>
   <si>
@@ -486,13 +486,205 @@
   </si>
   <si>
     <t>💡 Check preview before confirming upload</t>
+  </si>
+  <si>
+    <t>area_id</t>
+  </si>
+  <si>
+    <t>area_name</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>sort_order</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>9ef542a0-a59c-4e50-8a28-cf70c9dff59e</t>
+  </si>
+  <si>
+    <t>941730ad-4443-48d7-8a4b-b07664a9e0db</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>52227947-11bc-4508-811c-ce589a9012f8</t>
+  </si>
+  <si>
+    <t>💚</t>
+  </si>
+  <si>
+    <t>#4CAF50</t>
+  </si>
+  <si>
+    <t>c9a2f253-a944-4f9e-96b5-92c47e239e37</t>
+  </si>
+  <si>
+    <t>💪</t>
+  </si>
+  <si>
+    <t>#2196F3</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>parent_category</t>
+  </si>
+  <si>
+    <t>category_name</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>35231cb5-bb34-4cb7-a902-7b86a786d190</t>
+  </si>
+  <si>
+    <t>db084606-40b1-46ba-a6a6-20087c0589ea</t>
+  </si>
+  <si>
+    <t>e2b2bce6-1ef3-4ae5-942d-abab31d90695</t>
+  </si>
+  <si>
+    <t>Muskonomy</t>
+  </si>
+  <si>
+    <t>f6985d8a-35ed-4d69-9cb3-157a57dbc8df</t>
+  </si>
+  <si>
+    <t>1e005740-26e1-40b7-8f97-4fb70de2f7a7</t>
+  </si>
+  <si>
+    <t>11abce6d-83e6-4508-969a-ef8bb3b18fc5</t>
+  </si>
+  <si>
+    <t>c7f37f3d-8478-4ce0-8bda-05efc08f59fc</t>
+  </si>
+  <si>
+    <t>d846fe71-ef20-4205-ba05-9544dc73db58</t>
+  </si>
+  <si>
+    <t>fb7eeb97-b3d9-41da-af6d-e40089ba3fe5</t>
+  </si>
+  <si>
+    <t>attribute_id</t>
+  </si>
+  <si>
+    <t>attribute_name</t>
+  </si>
+  <si>
+    <t>data_type</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>is_required</t>
+  </si>
+  <si>
+    <t>default_value</t>
+  </si>
+  <si>
+    <t>validation_rules</t>
+  </si>
+  <si>
+    <t>ebc9a54d-f8d8-4d2a-86fd-8a780337fca3</t>
+  </si>
+  <si>
+    <t>{'max': 500, 'min': 0}</t>
+  </si>
+  <si>
+    <t>485e6b19-ed67-4432-9155-c4a64f409294</t>
+  </si>
+  <si>
+    <t>{'max': 100000, 'min': 0}</t>
+  </si>
+  <si>
+    <t>e080a6a4-fcab-4655-a062-b2e62e1a4ce6</t>
+  </si>
+  <si>
+    <t>{'max': 600, 'min': 1}</t>
+  </si>
+  <si>
+    <t>bd676387-c31f-412c-bc87-d47565538b84</t>
+  </si>
+  <si>
+    <t>8d8cf0c0-1aa6-4cc1-b559-c51ba86eb57a</t>
+  </si>
+  <si>
+    <t>{'max': 24, 'min': 0}</t>
+  </si>
+  <si>
+    <t>cc886e85-5580-4083-bc60-92e47d23ab23</t>
+  </si>
+  <si>
+    <t>{'max': 120, 'min': 30}</t>
+  </si>
+  <si>
+    <t>15b64707-796a-41ee-a39e-ba392831acd6</t>
+  </si>
+  <si>
+    <t>{'max': 12, 'min': 0}</t>
+  </si>
+  <si>
+    <t>cc886e85-5580-4083-bc60-92e47d23ab24</t>
+  </si>
+  <si>
+    <t>{'max': 100, 'min': 1}</t>
+  </si>
+  <si>
+    <t>5d792500-e1f1-45bb-adfa-668e0eb6cb48</t>
+  </si>
+  <si>
+    <t>{'max': 200, 'min': 0}</t>
+  </si>
+  <si>
+    <t>1f3c3762-076d-4702-a3fb-480b9d6f491c</t>
+  </si>
+  <si>
+    <t>99007ce9-aa0a-4e7e-b846-182ad196dd83</t>
+  </si>
+  <si>
+    <t>{'max': 220, 'min': 40}</t>
+  </si>
+  <si>
+    <t>bd676387-c3f8-412c-bc87-d34755553884</t>
+  </si>
+  <si>
+    <t>{'max': 100, 'min': 0}</t>
+  </si>
+  <si>
+    <t>e080a6a4-fcab-4655-a062-b2e62e1a4ce7</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>aa9e885a-20a4-4da3-8651-2350e1aef455</t>
+  </si>
+  <si>
+    <t>{'max': 5000, 'min': 0}</t>
+  </si>
+  <si>
+    <t>8c26c307-1ca1-46c1-9d1e-4c4c8abf1780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heart rate variability </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,6 +721,11 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="6">
@@ -605,7 +802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -621,6 +818,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -931,7 +1131,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -939,13 +1139,13 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="4" max="4" width="40.5546875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="13" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="15" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="9.44140625" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="12" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="40" customWidth="1"/>
   </cols>
@@ -1377,7 +1577,7 @@
         <v>2</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>46</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -1397,7 +1597,7 @@
         <v>36</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>27</v>
@@ -1415,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -1426,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1441,7 +1641,7 @@
         <v>2</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1452,13 +1652,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1469,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -1480,34 +1680,34 @@
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="F17" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="I17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -1518,34 +1718,34 @@
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="F18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="I18" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <v>1</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -1556,16 +1756,16 @@
         <v>2</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="F19" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>27</v>
@@ -1583,7 +1783,7 @@
         <v>2</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -1594,22 +1794,22 @@
         <v>2</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="F20" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="4" t="b">
         <v>0</v>
@@ -1621,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1632,13 +1832,13 @@
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1649,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -1660,22 +1860,22 @@
         <v>2</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="F22" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I22" s="4" t="b">
         <v>1</v>
@@ -1687,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -1698,34 +1898,34 @@
         <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="F23" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1</v>
+      </c>
+      <c r="L23" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="I23" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0</v>
-      </c>
-      <c r="K23" s="4">
-        <v>1</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -1736,19 +1936,19 @@
         <v>2</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="F24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4" t="b">
@@ -1759,7 +1959,7 @@
         <v>2</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -1770,13 +1970,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1787,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -1798,34 +1998,34 @@
         <v>3</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="F26" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="I26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -1836,13 +2036,13 @@
         <v>2</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1853,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -1864,22 +2064,22 @@
         <v>3</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="F28" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I28" s="4" t="b">
         <v>0</v>
@@ -1891,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1900,11 +2100,750 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0207E5-DF69-4E1E-8FFB-FC541253E951}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7181B6-ED52-4DF2-997E-B7AE595E70B9}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55DD78B-3E60-4C88-9255-C8C22010D812}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>198</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>200</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>206</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>206</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>209</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>211</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>213</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>215</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>211</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A107"/>
   <sheetViews>
     <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1914,7 +2853,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -1922,17 +2861,17 @@
     </row>
     <row r="3" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
@@ -1940,12 +2879,12 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
@@ -1953,17 +2892,17 @@
     </row>
     <row r="10" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
@@ -1971,27 +2910,27 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -1999,32 +2938,32 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
@@ -2032,27 +2971,27 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -2060,17 +2999,17 @@
     </row>
     <row r="33" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -2078,27 +3017,27 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -2106,17 +3045,17 @@
     </row>
     <row r="43" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
@@ -2124,7 +3063,7 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
@@ -2132,42 +3071,42 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
@@ -2175,27 +3114,27 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
@@ -2203,27 +3142,27 @@
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
@@ -2231,17 +3170,17 @@
     </row>
     <row r="70" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
@@ -2249,7 +3188,7 @@
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
@@ -2257,22 +3196,22 @@
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
@@ -2280,22 +3219,22 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
@@ -2303,17 +3242,17 @@
     </row>
     <row r="86" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
@@ -2321,27 +3260,27 @@
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
@@ -2349,17 +3288,17 @@
     </row>
     <row r="96" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
@@ -2367,27 +3306,27 @@
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
@@ -2395,7 +3334,7 @@
     </row>
     <row r="106" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
